--- a/SuraClaims/DataSource - Ambiente y Usuario.xlsx
+++ b/SuraClaims/DataSource - Ambiente y Usuario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Downloads\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8FB6EA-1582-47F0-A583-50F3ADB8669B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A413A3-AFE2-4778-A74F-7F7AA2ACE2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD4D5B32-3ED0-4AA2-B8F8-538A2E83AD60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Ambiente</t>
   </si>
@@ -49,16 +49,33 @@
   </si>
   <si>
     <t>gw</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>silverarrow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +98,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37F2D82-6110-4ACB-ADC7-18DFBBBDC184}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +456,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B019ED43-F257-46D3-81B6-2F05B0D5A2FF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SuraClaims/DataSource - Ambiente y Usuario.xlsx
+++ b/SuraClaims/DataSource - Ambiente y Usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A413A3-AFE2-4778-A74F-7F7AA2ACE2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70FB3D-59A6-4411-AF0C-76F316C2D334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD4D5B32-3ED0-4AA2-B8F8-538A2E83AD60}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>gw</t>
   </si>
   <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
     <t>silverarrow</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,13 +461,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
